--- a/excel_files/17.3.1.1a.xlsx
+++ b/excel_files/17.3.1.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -470,6 +470,16 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -845,9 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H634"/>
+  <dimension ref="A1:I634"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -860,7 +872,7 @@
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
@@ -871,7 +883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
@@ -882,11 +894,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -911,8 +923,11 @@
       <c r="H4" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -937,8 +952,11 @@
       <c r="H5" s="30">
         <v>1076918.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="34">
+        <v>537553.80000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -963,8 +981,11 @@
       <c r="H6" s="32">
         <v>149.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="35">
+        <v>276.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1010,11 @@
       <c r="H7" s="32">
         <v>99480.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="35">
+        <v>80925.899999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
@@ -1015,8 +1039,11 @@
       <c r="H8" s="32">
         <v>340804.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="35">
+        <v>259133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
@@ -1041,8 +1068,11 @@
       <c r="H9" s="31">
         <v>10595.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="36">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>30</v>
       </c>
@@ -1067,8 +1097,11 @@
       <c r="H10" s="31">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="36">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
@@ -1093,8 +1126,11 @@
       <c r="H11" s="32">
         <v>56015.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="35">
+        <v>24261.599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
@@ -1119,8 +1155,11 @@
       <c r="H12" s="32">
         <v>36144.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="35">
+        <v>28446.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
@@ -1145,8 +1184,11 @@
       <c r="H13" s="32">
         <v>18535.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="35">
+        <v>654.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>15</v>
       </c>
@@ -1171,8 +1213,11 @@
       <c r="H14" s="32">
         <v>832.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="35">
+        <v>759.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1242,11 @@
       <c r="H15" s="32">
         <v>138479.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="35">
+        <v>38696.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
@@ -1223,8 +1271,11 @@
       <c r="H16" s="32">
         <v>62669.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="35">
+        <v>42895.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>33</v>
       </c>
@@ -1249,8 +1300,11 @@
       <c r="H17" s="32">
         <v>1029.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="35">
+        <v>721.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
@@ -1275,8 +1329,11 @@
       <c r="H18" s="32">
         <v>309563.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="35">
+        <v>59126.400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
@@ -1301,8 +1358,11 @@
       <c r="H19" s="32">
         <v>2246.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="35">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
@@ -1327,8 +1387,11 @@
       <c r="H20" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>36</v>
       </c>
@@ -1353,8 +1416,11 @@
       <c r="H21" s="32">
         <v>121.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="35">
+        <v>393.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>37</v>
       </c>
@@ -1377,8 +1443,11 @@
       <c r="H22" s="9">
         <v>181.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="38">
+        <v>919.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>38</v>
       </c>
@@ -1401,32 +1470,35 @@
       <c r="H23" s="33">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="39">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/excel_files/17.3.1.1a.xlsx
+++ b/excel_files/17.3.1.1a.xlsx
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -480,6 +480,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I634"/>
+  <dimension ref="A1:J634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -872,7 +875,7 @@
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
@@ -883,7 +886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
@@ -894,11 +897,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -926,8 +929,11 @@
       <c r="I4" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -955,8 +961,11 @@
       <c r="I5" s="34">
         <v>537553.80000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="30">
+        <v>1006091.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -984,8 +993,11 @@
       <c r="I6" s="35">
         <v>276.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="32">
+        <v>2092.6999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1025,11 @@
       <c r="I7" s="35">
         <v>80925.899999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="32">
+        <v>211904.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
@@ -1042,8 +1057,11 @@
       <c r="I8" s="35">
         <v>259133</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="32">
+        <v>228945.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
@@ -1071,8 +1089,11 @@
       <c r="I9" s="36">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="31">
+        <v>6780.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>30</v>
       </c>
@@ -1100,8 +1121,11 @@
       <c r="I10" s="36">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="31">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
@@ -1129,8 +1153,11 @@
       <c r="I11" s="35">
         <v>24261.599999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="32">
+        <v>9456.7999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
@@ -1158,8 +1185,11 @@
       <c r="I12" s="35">
         <v>28446.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="32">
+        <v>92470.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
@@ -1187,8 +1217,11 @@
       <c r="I13" s="35">
         <v>654.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="32">
+        <v>656.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>15</v>
       </c>
@@ -1216,8 +1249,11 @@
       <c r="I14" s="35">
         <v>759.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="32">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
@@ -1245,8 +1281,11 @@
       <c r="I15" s="35">
         <v>38696.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="32">
+        <v>59559.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
@@ -1274,8 +1313,11 @@
       <c r="I16" s="35">
         <v>42895.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="32">
+        <v>53592.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>33</v>
       </c>
@@ -1303,8 +1345,11 @@
       <c r="I17" s="35">
         <v>721.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="32">
+        <v>11799.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
@@ -1332,8 +1377,11 @@
       <c r="I18" s="35">
         <v>59126.400000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="32">
+        <v>316755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
@@ -1361,8 +1409,11 @@
       <c r="I19" s="35">
         <v>147.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="32">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
@@ -1390,8 +1441,11 @@
       <c r="I20" s="37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="4">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>36</v>
       </c>
@@ -1419,8 +1473,11 @@
       <c r="I21" s="35">
         <v>393.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="32">
+        <v>1672.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>37</v>
       </c>
@@ -1446,8 +1503,11 @@
       <c r="I22" s="38">
         <v>919.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="40">
+        <v>5539.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>38</v>
       </c>
@@ -1473,32 +1533,35 @@
       <c r="I23" s="39">
         <v>177.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="33">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/excel_files/17.3.1.1a.xlsx
+++ b/excel_files/17.3.1.1a.xlsx
@@ -858,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J634"/>
+  <dimension ref="A1:K634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -875,7 +875,7 @@
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
@@ -886,7 +886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
@@ -897,11 +897,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -932,8 +932,11 @@
       <c r="J4" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -964,8 +967,11 @@
       <c r="J5" s="30">
         <v>1006091.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="30">
+        <v>1202599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1002,11 @@
       <c r="J6" s="32">
         <v>2092.6999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="32">
+        <v>3358.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1037,11 @@
       <c r="J7" s="32">
         <v>211904.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="32">
+        <v>499785.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>29</v>
       </c>
@@ -1060,8 +1072,11 @@
       <c r="J8" s="32">
         <v>228945.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="32">
+        <v>340881.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
@@ -1092,8 +1107,11 @@
       <c r="J9" s="31">
         <v>6780.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="31">
+        <v>1259.0999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>30</v>
       </c>
@@ -1124,8 +1142,11 @@
       <c r="J10" s="31">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="31">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
@@ -1156,8 +1177,11 @@
       <c r="J11" s="32">
         <v>9456.7999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="32">
+        <v>8430.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
@@ -1188,8 +1212,11 @@
       <c r="J12" s="32">
         <v>92470.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="32">
+        <v>105738.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
@@ -1220,8 +1247,11 @@
       <c r="J13" s="32">
         <v>656.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="32">
+        <v>15068.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>15</v>
       </c>
@@ -1252,8 +1282,11 @@
       <c r="J14" s="32">
         <v>3692</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="32">
+        <v>1372.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
@@ -1284,8 +1317,11 @@
       <c r="J15" s="32">
         <v>59559.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="32">
+        <v>35842.199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
@@ -1316,8 +1352,11 @@
       <c r="J16" s="32">
         <v>53592.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="32">
+        <v>118699.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>33</v>
       </c>
@@ -1348,8 +1387,11 @@
       <c r="J17" s="32">
         <v>11799.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="32">
+        <v>6812.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
@@ -1380,8 +1422,11 @@
       <c r="J18" s="32">
         <v>316755</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="32">
+        <v>63357.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
@@ -1412,8 +1457,11 @@
       <c r="J19" s="32">
         <v>901</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="32">
+        <v>733.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
@@ -1444,8 +1492,11 @@
       <c r="J20" s="4">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="4">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>36</v>
       </c>
@@ -1476,8 +1527,11 @@
       <c r="J21" s="32">
         <v>1672.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="32">
+        <v>923.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>37</v>
       </c>
@@ -1506,8 +1560,11 @@
       <c r="J22" s="40">
         <v>5539.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="40">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>38</v>
       </c>
@@ -1536,32 +1593,35 @@
       <c r="J23" s="33">
         <v>103.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="33">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/excel_files/17.3.1.1a.xlsx
+++ b/excel_files/17.3.1.1a.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Строительство</t>
   </si>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -390,9 +390,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -402,18 +399,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -430,58 +415,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -858,57 +873,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K634"/>
+  <dimension ref="A1:L634"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="12" customWidth="1"/>
-    <col min="2" max="3" width="43.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="5"/>
-    <col min="9" max="12" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="42.140625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="4"/>
+    <col min="9" max="12" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2">
@@ -935,2500 +948,2562 @@
       <c r="K4" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="L4" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="16">
         <v>1573243.7</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="17">
         <v>813960.7</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="17">
         <v>616793.1</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="18">
         <v>851743.6</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="18">
         <v>1076918.7</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="19">
         <v>537553.80000000005</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="18">
         <v>1006091.2</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="18">
         <v>1202599</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="L5" s="18">
+        <v>844895.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="22">
         <v>316.2</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="23">
         <v>210.9</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="23">
         <v>21.8</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="24">
         <v>2327.6</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="24">
         <v>149.1</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="25">
         <v>276.2</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="24">
         <v>2092.6999999999998</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="24">
         <v>3358.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="L6" s="24">
+        <v>666.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="22">
         <v>14727.5</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="23">
         <v>54302.3</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="23">
         <v>80995.199999999997</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="24">
         <v>91845.7</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="24">
         <v>99480.9</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="25">
         <v>80925.899999999994</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>211904.6</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="24">
         <v>499785.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="L7" s="24">
+        <v>220988.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="22">
         <v>564715.30000000005</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="23">
         <v>251234.3</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="23">
         <v>186333.7</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="24">
         <v>376441.7</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="24">
         <v>340804.6</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="25">
         <v>259133</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>228945.8</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="24">
         <v>340881.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="L8" s="24">
+        <v>233835.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="22">
         <v>136704.79999999999</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="23">
         <v>122246.9</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="23">
         <v>79828.600000000006</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="24">
         <v>15830.6</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="23">
         <v>10595.7</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="29">
         <v>9.5</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="23">
         <v>6780.6</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="23">
         <v>1259.0999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="L9" s="23">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="22">
         <v>3.8</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="23">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="29">
         <v>7.6</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="23">
         <v>92.5</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="23">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="L10" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="22">
         <v>107007.6</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="23">
         <v>25385.8</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="23">
         <v>3070.6</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="24">
         <v>71859.5</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="24">
         <v>56015.7</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="25">
         <v>24261.599999999999</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="24">
         <v>9456.7999999999993</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="24">
         <v>8430.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="L11" s="24">
+        <v>26939.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="22">
         <v>64832.3</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="23">
         <v>13231</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="23">
         <v>30550.6</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="24">
         <v>34533.199999999997</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="24">
         <v>36144.1</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="25">
         <v>28446.3</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="24">
         <v>92470.9</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="24">
         <v>105738.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="L12" s="24">
+        <v>119778.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="22">
         <v>2551.5</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="23">
         <v>18.2</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="23">
         <v>104.8</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="24">
         <v>8726.7999999999993</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="24">
         <v>18535.7</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="25">
         <v>654.9</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="24">
         <v>656.4</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="24">
         <v>15068.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="L13" s="24">
+        <v>19295.900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="22">
         <v>38.4</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="23">
         <v>2102.5</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="23">
         <v>2624.7</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="24">
         <v>638.20000000000005</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="24">
         <v>832.8</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="25">
         <v>759.8</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="24">
         <v>3692</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="24">
         <v>1372.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="L14" s="24">
+        <v>7382.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="22">
         <v>5699.3</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="23">
         <v>1251</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="23">
         <v>14422.4</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="24">
         <v>52603.8</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="24">
         <v>138479.6</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="25">
         <v>38696.1</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="24">
         <v>59559.1</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="24">
         <v>35842.199999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="L15" s="24">
+        <v>14998.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="22">
         <v>411883.8</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="23">
         <v>178724.5</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="23">
         <v>81475.8</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="24">
         <v>53939.5</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="24">
         <v>62669.5</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="25">
         <v>42895.5</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="24">
         <v>53592.2</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="24">
         <v>118699.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="L16" s="24">
+        <v>158518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="22">
         <v>2845.7</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="23">
         <v>216.8</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="24">
         <v>729.6</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="24">
         <v>1029.7</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="25">
         <v>721.9</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="24">
         <v>11799.2</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="24">
         <v>6812.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="L17" s="24">
+        <v>10983.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="22">
         <v>261903.2</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="23">
         <v>164965.9</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="23">
         <v>132449.4</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="24">
         <v>142129</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="24">
         <v>309563.2</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="25">
         <v>59126.400000000001</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="24">
         <v>316755</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="24">
         <v>63357.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="L18" s="24">
+        <v>22712.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="22">
         <v>0.8</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="23">
         <v>65.400000000000006</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="23">
         <v>123.3</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="24">
         <v>2246.9</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="25">
         <v>147.6</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="24">
         <v>901</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="24">
         <v>733.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="L19" s="24">
+        <v>4641.8999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="22">
         <v>17.3</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="23">
         <v>5.2</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="23">
         <v>6.1</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="22">
         <v>0.8</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="31">
         <v>0.5</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="22">
         <v>76.5</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="22">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="L20" s="22">
+        <v>1154.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="32">
         <v>73</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="24">
         <v>8.1</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="24">
         <v>121.8</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="25">
         <v>393.4</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="24">
         <v>1672.3</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="24">
         <v>923.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="L21" s="24">
+        <v>2503.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="22">
         <v>4712</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="9">
+      <c r="G22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="5">
         <v>181.1</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="33">
         <v>919.7</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="34">
         <v>5539.9</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="34">
         <v>125.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="L22" s="34">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11">
+      <c r="F23" s="37"/>
+      <c r="G23" s="37">
         <v>50.4</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="38">
         <v>57.8</v>
       </c>
       <c r="I23" s="39">
         <v>177.9</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="38">
         <v>103.7</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="38">
         <v>147.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="L23" s="38">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="A38" s="8"/>
     </row>
     <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="8"/>
     </row>
     <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="8"/>
     </row>
     <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="8"/>
     </row>
     <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+      <c r="A48" s="8"/>
     </row>
     <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+      <c r="A49" s="8"/>
     </row>
     <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+      <c r="A50" s="8"/>
     </row>
     <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
+      <c r="A57" s="8"/>
     </row>
     <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
+      <c r="A89" s="8"/>
     </row>
     <row r="90" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
+      <c r="A93" s="8"/>
     </row>
     <row r="94" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
+      <c r="A97" s="8"/>
     </row>
     <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
+      <c r="A98" s="8"/>
     </row>
     <row r="99" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
+      <c r="A99" s="8"/>
     </row>
     <row r="100" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13"/>
+      <c r="A109" s="8"/>
     </row>
     <row r="110" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
+      <c r="A110" s="8"/>
     </row>
     <row r="111" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
+      <c r="A111" s="8"/>
     </row>
     <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13"/>
+      <c r="A112" s="8"/>
     </row>
     <row r="113" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
+      <c r="A113" s="8"/>
     </row>
     <row r="114" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
+      <c r="A115" s="8"/>
     </row>
     <row r="116" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13"/>
+      <c r="A121" s="8"/>
     </row>
     <row r="122" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
+      <c r="A123" s="8"/>
     </row>
     <row r="124" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13"/>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13"/>
+      <c r="A125" s="8"/>
     </row>
     <row r="126" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
+      <c r="A126" s="8"/>
     </row>
     <row r="127" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13"/>
+      <c r="A127" s="8"/>
     </row>
     <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13"/>
+      <c r="A128" s="8"/>
     </row>
     <row r="129" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13"/>
+      <c r="A129" s="8"/>
     </row>
     <row r="130" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="13"/>
+      <c r="A130" s="8"/>
     </row>
     <row r="131" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13"/>
+      <c r="A131" s="8"/>
     </row>
     <row r="132" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13"/>
+      <c r="A132" s="8"/>
     </row>
     <row r="133" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13"/>
+      <c r="A133" s="8"/>
     </row>
     <row r="134" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="13"/>
+      <c r="A136" s="8"/>
     </row>
     <row r="137" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13"/>
+      <c r="A137" s="8"/>
     </row>
     <row r="138" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13"/>
+      <c r="A138" s="8"/>
     </row>
     <row r="139" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13"/>
+      <c r="A139" s="8"/>
     </row>
     <row r="140" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
+      <c r="A140" s="8"/>
     </row>
     <row r="141" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
+      <c r="A141" s="8"/>
     </row>
     <row r="142" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="13"/>
+      <c r="A142" s="8"/>
     </row>
     <row r="143" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
+      <c r="A143" s="8"/>
     </row>
     <row r="144" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
+      <c r="A144" s="8"/>
     </row>
     <row r="145" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
+      <c r="A145" s="8"/>
     </row>
     <row r="146" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
+      <c r="A146" s="8"/>
     </row>
     <row r="147" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
+      <c r="A147" s="8"/>
     </row>
     <row r="148" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13"/>
+      <c r="A148" s="8"/>
     </row>
     <row r="149" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13"/>
+      <c r="A149" s="8"/>
     </row>
     <row r="150" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
+      <c r="A150" s="8"/>
     </row>
     <row r="151" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="13"/>
+      <c r="A151" s="8"/>
     </row>
     <row r="152" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13"/>
+      <c r="A152" s="8"/>
     </row>
     <row r="153" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13"/>
+      <c r="A153" s="8"/>
     </row>
     <row r="154" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13"/>
+      <c r="A154" s="8"/>
     </row>
     <row r="155" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13"/>
+      <c r="A155" s="8"/>
     </row>
     <row r="156" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13"/>
+      <c r="A156" s="8"/>
     </row>
     <row r="157" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="13"/>
+      <c r="A157" s="8"/>
     </row>
     <row r="158" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13"/>
+      <c r="A158" s="8"/>
     </row>
     <row r="159" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13"/>
+      <c r="A159" s="8"/>
     </row>
     <row r="160" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13"/>
+      <c r="A160" s="8"/>
     </row>
     <row r="161" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13"/>
+      <c r="A161" s="8"/>
     </row>
     <row r="162" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13"/>
+      <c r="A162" s="8"/>
     </row>
     <row r="163" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13"/>
+      <c r="A163" s="8"/>
     </row>
     <row r="164" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13"/>
+      <c r="A164" s="8"/>
     </row>
     <row r="165" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
+      <c r="A165" s="8"/>
     </row>
     <row r="166" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13"/>
+      <c r="A166" s="8"/>
     </row>
     <row r="167" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13"/>
+      <c r="A167" s="8"/>
     </row>
     <row r="168" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13"/>
+      <c r="A168" s="8"/>
     </row>
     <row r="169" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13"/>
+      <c r="A169" s="8"/>
     </row>
     <row r="170" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="13"/>
+      <c r="A170" s="8"/>
     </row>
     <row r="171" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13"/>
+      <c r="A171" s="8"/>
     </row>
     <row r="172" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="13"/>
+      <c r="A172" s="8"/>
     </row>
     <row r="173" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13"/>
+      <c r="A173" s="8"/>
     </row>
     <row r="174" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="13"/>
+      <c r="A174" s="8"/>
     </row>
     <row r="175" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13"/>
+      <c r="A175" s="8"/>
     </row>
     <row r="176" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13"/>
+      <c r="A176" s="8"/>
     </row>
     <row r="177" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
+      <c r="A177" s="8"/>
     </row>
     <row r="178" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
+      <c r="A178" s="8"/>
     </row>
     <row r="179" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13"/>
+      <c r="A179" s="8"/>
     </row>
     <row r="180" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
+      <c r="A180" s="8"/>
     </row>
     <row r="181" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="13"/>
+      <c r="A181" s="8"/>
     </row>
     <row r="182" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13"/>
+      <c r="A182" s="8"/>
     </row>
     <row r="183" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="13"/>
+      <c r="A184" s="8"/>
     </row>
     <row r="185" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13"/>
+      <c r="A185" s="8"/>
     </row>
     <row r="186" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13"/>
+      <c r="A186" s="8"/>
     </row>
     <row r="187" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="13"/>
+      <c r="A187" s="8"/>
     </row>
     <row r="188" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13"/>
+      <c r="A189" s="8"/>
     </row>
     <row r="190" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="13"/>
+      <c r="A190" s="8"/>
     </row>
     <row r="191" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13"/>
+      <c r="A191" s="8"/>
     </row>
     <row r="192" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13"/>
+      <c r="A192" s="8"/>
     </row>
     <row r="193" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="13"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13"/>
+      <c r="A195" s="8"/>
     </row>
     <row r="196" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="13"/>
+      <c r="A196" s="8"/>
     </row>
     <row r="197" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13"/>
+      <c r="A197" s="8"/>
     </row>
     <row r="198" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13"/>
+      <c r="A198" s="8"/>
     </row>
     <row r="199" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="13"/>
+      <c r="A199" s="8"/>
     </row>
     <row r="200" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
+      <c r="A200" s="8"/>
     </row>
     <row r="201" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13"/>
+      <c r="A201" s="8"/>
     </row>
     <row r="202" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="13"/>
+      <c r="A202" s="8"/>
     </row>
     <row r="203" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13"/>
+      <c r="A203" s="8"/>
     </row>
     <row r="204" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
+      <c r="A204" s="8"/>
     </row>
     <row r="205" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="13"/>
+      <c r="A205" s="8"/>
     </row>
     <row r="206" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
+      <c r="A206" s="8"/>
     </row>
     <row r="207" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
+      <c r="A207" s="8"/>
     </row>
     <row r="208" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="13"/>
+      <c r="A208" s="8"/>
     </row>
     <row r="209" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
+      <c r="A209" s="8"/>
     </row>
     <row r="210" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
+      <c r="A210" s="8"/>
     </row>
     <row r="211" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13"/>
+      <c r="A211" s="8"/>
     </row>
     <row r="212" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
+      <c r="A212" s="8"/>
     </row>
     <row r="213" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
+      <c r="A213" s="8"/>
     </row>
     <row r="214" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13"/>
+      <c r="A214" s="8"/>
     </row>
     <row r="215" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13"/>
+      <c r="A215" s="8"/>
     </row>
     <row r="216" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
+      <c r="A216" s="8"/>
     </row>
     <row r="217" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13"/>
+      <c r="A217" s="8"/>
     </row>
     <row r="218" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
+      <c r="A218" s="8"/>
     </row>
     <row r="219" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
+      <c r="A219" s="8"/>
     </row>
     <row r="220" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13"/>
+      <c r="A220" s="8"/>
     </row>
     <row r="221" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
+      <c r="A221" s="8"/>
     </row>
     <row r="222" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
+      <c r="A222" s="8"/>
     </row>
     <row r="223" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="13"/>
+      <c r="A223" s="8"/>
     </row>
     <row r="224" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13"/>
+      <c r="A224" s="8"/>
     </row>
     <row r="225" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13"/>
+      <c r="A225" s="8"/>
     </row>
     <row r="226" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="13"/>
+      <c r="A226" s="8"/>
     </row>
     <row r="227" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13"/>
+      <c r="A227" s="8"/>
     </row>
     <row r="228" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="13"/>
+      <c r="A228" s="8"/>
     </row>
     <row r="229" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="13"/>
+      <c r="A229" s="8"/>
     </row>
     <row r="230" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="13"/>
+      <c r="A230" s="8"/>
     </row>
     <row r="231" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="13"/>
+      <c r="A231" s="8"/>
     </row>
     <row r="232" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="13"/>
+      <c r="A232" s="8"/>
     </row>
     <row r="233" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
+      <c r="A233" s="8"/>
     </row>
     <row r="234" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
+      <c r="A234" s="8"/>
     </row>
     <row r="235" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="13"/>
+      <c r="A235" s="8"/>
     </row>
     <row r="236" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="13"/>
+      <c r="A236" s="8"/>
     </row>
     <row r="237" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="13"/>
+      <c r="A237" s="8"/>
     </row>
     <row r="238" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="13"/>
+      <c r="A238" s="8"/>
     </row>
     <row r="239" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="13"/>
+      <c r="A239" s="8"/>
     </row>
     <row r="240" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="13"/>
+      <c r="A240" s="8"/>
     </row>
     <row r="241" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="13"/>
+      <c r="A241" s="8"/>
     </row>
     <row r="242" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="13"/>
+      <c r="A242" s="8"/>
     </row>
     <row r="243" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="13"/>
+      <c r="A243" s="8"/>
     </row>
     <row r="244" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="13"/>
+      <c r="A244" s="8"/>
     </row>
     <row r="245" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="13"/>
+      <c r="A245" s="8"/>
     </row>
     <row r="246" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="13"/>
+      <c r="A246" s="8"/>
     </row>
     <row r="247" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="13"/>
+      <c r="A247" s="8"/>
     </row>
     <row r="248" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="13"/>
+      <c r="A248" s="8"/>
     </row>
     <row r="249" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="13"/>
+      <c r="A249" s="8"/>
     </row>
     <row r="250" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="13"/>
+      <c r="A250" s="8"/>
     </row>
     <row r="251" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="13"/>
+      <c r="A251" s="8"/>
     </row>
     <row r="252" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="13"/>
+      <c r="A252" s="8"/>
     </row>
     <row r="253" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="13"/>
+      <c r="A253" s="8"/>
     </row>
     <row r="254" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="13"/>
+      <c r="A254" s="8"/>
     </row>
     <row r="255" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="13"/>
+      <c r="A255" s="8"/>
     </row>
     <row r="256" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="13"/>
+      <c r="A256" s="8"/>
     </row>
     <row r="257" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="13"/>
+      <c r="A257" s="8"/>
     </row>
     <row r="258" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="13"/>
+      <c r="A258" s="8"/>
     </row>
     <row r="259" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="13"/>
+      <c r="A259" s="8"/>
     </row>
     <row r="260" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="13"/>
+      <c r="A260" s="8"/>
     </row>
     <row r="261" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="13"/>
+      <c r="A261" s="8"/>
     </row>
     <row r="262" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="13"/>
+      <c r="A262" s="8"/>
     </row>
     <row r="263" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="13"/>
+      <c r="A263" s="8"/>
     </row>
     <row r="264" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="13"/>
+      <c r="A264" s="8"/>
     </row>
     <row r="265" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="13"/>
+      <c r="A265" s="8"/>
     </row>
     <row r="266" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="13"/>
+      <c r="A266" s="8"/>
     </row>
     <row r="267" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="13"/>
+      <c r="A267" s="8"/>
     </row>
     <row r="268" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="13"/>
+      <c r="A268" s="8"/>
     </row>
     <row r="269" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="13"/>
+      <c r="A269" s="8"/>
     </row>
     <row r="270" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="13"/>
+      <c r="A270" s="8"/>
     </row>
     <row r="271" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="13"/>
+      <c r="A271" s="8"/>
     </row>
     <row r="272" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="13"/>
+      <c r="A272" s="8"/>
     </row>
     <row r="273" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="13"/>
+      <c r="A273" s="8"/>
     </row>
     <row r="274" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="13"/>
+      <c r="A274" s="8"/>
     </row>
     <row r="275" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="13"/>
+      <c r="A275" s="8"/>
     </row>
     <row r="276" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="13"/>
+      <c r="A276" s="8"/>
     </row>
     <row r="277" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="13"/>
+      <c r="A277" s="8"/>
     </row>
     <row r="278" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="13"/>
+      <c r="A278" s="8"/>
     </row>
     <row r="279" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="13"/>
+      <c r="A279" s="8"/>
     </row>
     <row r="280" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="13"/>
+      <c r="A280" s="8"/>
     </row>
     <row r="281" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="13"/>
+      <c r="A281" s="8"/>
     </row>
     <row r="282" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="13"/>
+      <c r="A282" s="8"/>
     </row>
     <row r="283" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="13"/>
+      <c r="A283" s="8"/>
     </row>
     <row r="284" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="13"/>
+      <c r="A284" s="8"/>
     </row>
     <row r="285" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="13"/>
+      <c r="A285" s="8"/>
     </row>
     <row r="286" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="13"/>
+      <c r="A286" s="8"/>
     </row>
     <row r="287" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="13"/>
+      <c r="A287" s="8"/>
     </row>
     <row r="288" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="13"/>
+      <c r="A288" s="8"/>
     </row>
     <row r="289" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="13"/>
+      <c r="A289" s="8"/>
     </row>
     <row r="290" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="13"/>
+      <c r="A290" s="8"/>
     </row>
     <row r="291" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="13"/>
+      <c r="A291" s="8"/>
     </row>
     <row r="292" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="13"/>
+      <c r="A292" s="8"/>
     </row>
     <row r="293" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="13"/>
+      <c r="A293" s="8"/>
     </row>
     <row r="294" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="13"/>
+      <c r="A294" s="8"/>
     </row>
     <row r="295" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="13"/>
+      <c r="A295" s="8"/>
     </row>
     <row r="296" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="13"/>
+      <c r="A296" s="8"/>
     </row>
     <row r="297" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="13"/>
+      <c r="A297" s="8"/>
     </row>
     <row r="298" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="13"/>
+      <c r="A298" s="8"/>
     </row>
     <row r="299" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="13"/>
+      <c r="A299" s="8"/>
     </row>
     <row r="300" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="13"/>
+      <c r="A300" s="8"/>
     </row>
     <row r="301" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="13"/>
+      <c r="A301" s="8"/>
     </row>
     <row r="302" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="13"/>
+      <c r="A302" s="8"/>
     </row>
     <row r="303" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="13"/>
+      <c r="A303" s="8"/>
     </row>
     <row r="304" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="13"/>
+      <c r="A304" s="8"/>
     </row>
     <row r="305" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="13"/>
+      <c r="A305" s="8"/>
     </row>
     <row r="306" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="13"/>
+      <c r="A306" s="8"/>
     </row>
     <row r="307" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="13"/>
+      <c r="A307" s="8"/>
     </row>
     <row r="308" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="13"/>
+      <c r="A308" s="8"/>
     </row>
     <row r="309" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="13"/>
+      <c r="A309" s="8"/>
     </row>
     <row r="310" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="13"/>
+      <c r="A310" s="8"/>
     </row>
     <row r="311" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="13"/>
+      <c r="A311" s="8"/>
     </row>
     <row r="312" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="13"/>
+      <c r="A312" s="8"/>
     </row>
     <row r="313" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="13"/>
+      <c r="A313" s="8"/>
     </row>
     <row r="314" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="13"/>
+      <c r="A314" s="8"/>
     </row>
     <row r="315" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="13"/>
+      <c r="A315" s="8"/>
     </row>
     <row r="316" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="13"/>
+      <c r="A316" s="8"/>
     </row>
     <row r="317" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="13"/>
+      <c r="A317" s="8"/>
     </row>
     <row r="318" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="13"/>
+      <c r="A318" s="8"/>
     </row>
     <row r="319" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="13"/>
+      <c r="A319" s="8"/>
     </row>
     <row r="320" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="13"/>
+      <c r="A320" s="8"/>
     </row>
     <row r="321" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="13"/>
+      <c r="A321" s="8"/>
     </row>
     <row r="322" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="13"/>
+      <c r="A322" s="8"/>
     </row>
     <row r="323" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="13"/>
+      <c r="A323" s="8"/>
     </row>
     <row r="324" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="13"/>
+      <c r="A324" s="8"/>
     </row>
     <row r="325" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="13"/>
+      <c r="A325" s="8"/>
     </row>
     <row r="326" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="13"/>
+      <c r="A326" s="8"/>
     </row>
     <row r="327" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="13"/>
+      <c r="A327" s="8"/>
     </row>
     <row r="328" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="13"/>
+      <c r="A328" s="8"/>
     </row>
     <row r="329" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="13"/>
+      <c r="A329" s="8"/>
     </row>
     <row r="330" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="13"/>
+      <c r="A330" s="8"/>
     </row>
     <row r="331" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="13"/>
+      <c r="A331" s="8"/>
     </row>
     <row r="332" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="13"/>
+      <c r="A332" s="8"/>
     </row>
     <row r="333" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="13"/>
+      <c r="A333" s="8"/>
     </row>
     <row r="334" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="13"/>
+      <c r="A334" s="8"/>
     </row>
     <row r="335" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="13"/>
+      <c r="A335" s="8"/>
     </row>
     <row r="336" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="13"/>
+      <c r="A336" s="8"/>
     </row>
     <row r="337" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="13"/>
+      <c r="A337" s="8"/>
     </row>
     <row r="338" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="13"/>
+      <c r="A338" s="8"/>
     </row>
     <row r="339" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="13"/>
+      <c r="A339" s="8"/>
     </row>
     <row r="340" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="13"/>
+      <c r="A340" s="8"/>
     </row>
     <row r="341" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="13"/>
+      <c r="A341" s="8"/>
     </row>
     <row r="342" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="13"/>
+      <c r="A342" s="8"/>
     </row>
     <row r="343" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="13"/>
+      <c r="A343" s="8"/>
     </row>
     <row r="344" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="13"/>
+      <c r="A344" s="8"/>
     </row>
     <row r="345" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="13"/>
+      <c r="A345" s="8"/>
     </row>
     <row r="346" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="13"/>
+      <c r="A346" s="8"/>
     </row>
     <row r="347" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="13"/>
+      <c r="A347" s="8"/>
     </row>
     <row r="348" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="13"/>
+      <c r="A348" s="8"/>
     </row>
     <row r="349" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="13"/>
+      <c r="A349" s="8"/>
     </row>
     <row r="350" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="13"/>
+      <c r="A350" s="8"/>
     </row>
     <row r="351" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="13"/>
+      <c r="A351" s="8"/>
     </row>
     <row r="352" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="13"/>
+      <c r="A352" s="8"/>
     </row>
     <row r="353" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="13"/>
+      <c r="A353" s="8"/>
     </row>
     <row r="354" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="13"/>
+      <c r="A354" s="8"/>
     </row>
     <row r="355" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="13"/>
+      <c r="A355" s="8"/>
     </row>
     <row r="356" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="13"/>
+      <c r="A356" s="8"/>
     </row>
     <row r="357" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="13"/>
+      <c r="A357" s="8"/>
     </row>
     <row r="358" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="13"/>
+      <c r="A358" s="8"/>
     </row>
     <row r="359" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="13"/>
+      <c r="A359" s="8"/>
     </row>
     <row r="360" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="13"/>
+      <c r="A360" s="8"/>
     </row>
     <row r="361" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="13"/>
+      <c r="A361" s="8"/>
     </row>
     <row r="362" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="13"/>
+      <c r="A362" s="8"/>
     </row>
     <row r="363" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="13"/>
+      <c r="A363" s="8"/>
     </row>
     <row r="364" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="13"/>
+      <c r="A364" s="8"/>
     </row>
     <row r="365" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="13"/>
+      <c r="A365" s="8"/>
     </row>
     <row r="366" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="13"/>
+      <c r="A366" s="8"/>
     </row>
     <row r="367" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="13"/>
+      <c r="A367" s="8"/>
     </row>
     <row r="368" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="13"/>
+      <c r="A368" s="8"/>
     </row>
     <row r="369" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="13"/>
+      <c r="A369" s="8"/>
     </row>
     <row r="370" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="13"/>
+      <c r="A370" s="8"/>
     </row>
     <row r="371" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="13"/>
+      <c r="A371" s="8"/>
     </row>
     <row r="372" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="13"/>
+      <c r="A372" s="8"/>
     </row>
     <row r="373" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="13"/>
+      <c r="A373" s="8"/>
     </row>
     <row r="374" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="13"/>
+      <c r="A374" s="8"/>
     </row>
     <row r="375" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="13"/>
+      <c r="A375" s="8"/>
     </row>
     <row r="376" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="13"/>
+      <c r="A376" s="8"/>
     </row>
     <row r="377" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="13"/>
+      <c r="A377" s="8"/>
     </row>
     <row r="378" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="13"/>
+      <c r="A378" s="8"/>
     </row>
     <row r="379" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="13"/>
+      <c r="A379" s="8"/>
     </row>
     <row r="380" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="13"/>
+      <c r="A380" s="8"/>
     </row>
     <row r="381" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="13"/>
+      <c r="A381" s="8"/>
     </row>
     <row r="382" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="13"/>
+      <c r="A382" s="8"/>
     </row>
     <row r="383" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="13"/>
+      <c r="A383" s="8"/>
     </row>
     <row r="384" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="13"/>
+      <c r="A384" s="8"/>
     </row>
     <row r="385" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="13"/>
+      <c r="A385" s="8"/>
     </row>
     <row r="386" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="13"/>
+      <c r="A386" s="8"/>
     </row>
     <row r="387" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="13"/>
+      <c r="A387" s="8"/>
     </row>
     <row r="388" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="13"/>
+      <c r="A388" s="8"/>
     </row>
     <row r="389" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="13"/>
+      <c r="A389" s="8"/>
     </row>
     <row r="390" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="13"/>
+      <c r="A390" s="8"/>
     </row>
     <row r="391" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="13"/>
+      <c r="A391" s="8"/>
     </row>
     <row r="392" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="13"/>
+      <c r="A392" s="8"/>
     </row>
     <row r="393" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="13"/>
+      <c r="A393" s="8"/>
     </row>
     <row r="394" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="13"/>
+      <c r="A394" s="8"/>
     </row>
     <row r="395" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="13"/>
+      <c r="A395" s="8"/>
     </row>
     <row r="396" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="13"/>
+      <c r="A396" s="8"/>
     </row>
     <row r="397" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="13"/>
+      <c r="A397" s="8"/>
     </row>
     <row r="398" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="13"/>
+      <c r="A398" s="8"/>
     </row>
     <row r="399" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="13"/>
+      <c r="A399" s="8"/>
     </row>
     <row r="400" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="13"/>
+      <c r="A400" s="8"/>
     </row>
     <row r="401" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="13"/>
+      <c r="A401" s="8"/>
     </row>
     <row r="402" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="13"/>
+      <c r="A402" s="8"/>
     </row>
     <row r="403" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="13"/>
+      <c r="A403" s="8"/>
     </row>
     <row r="404" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="13"/>
+      <c r="A404" s="8"/>
     </row>
     <row r="405" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="13"/>
+      <c r="A405" s="8"/>
     </row>
     <row r="406" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="13"/>
+      <c r="A406" s="8"/>
     </row>
     <row r="407" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="13"/>
+      <c r="A407" s="8"/>
     </row>
     <row r="408" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="13"/>
+      <c r="A408" s="8"/>
     </row>
     <row r="409" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="13"/>
+      <c r="A409" s="8"/>
     </row>
     <row r="410" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="13"/>
+      <c r="A410" s="8"/>
     </row>
     <row r="411" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="13"/>
+      <c r="A411" s="8"/>
     </row>
     <row r="412" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="13"/>
+      <c r="A412" s="8"/>
     </row>
     <row r="413" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="13"/>
+      <c r="A413" s="8"/>
     </row>
     <row r="414" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="13"/>
+      <c r="A414" s="8"/>
     </row>
     <row r="415" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="13"/>
+      <c r="A415" s="8"/>
     </row>
     <row r="416" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="13"/>
+      <c r="A416" s="8"/>
     </row>
     <row r="417" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="13"/>
+      <c r="A417" s="8"/>
     </row>
     <row r="418" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="13"/>
+      <c r="A418" s="8"/>
     </row>
     <row r="419" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="13"/>
+      <c r="A419" s="8"/>
     </row>
     <row r="420" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="13"/>
+      <c r="A420" s="8"/>
     </row>
     <row r="421" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="13"/>
+      <c r="A421" s="8"/>
     </row>
     <row r="422" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="13"/>
+      <c r="A422" s="8"/>
     </row>
     <row r="423" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="13"/>
+      <c r="A423" s="8"/>
     </row>
     <row r="424" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="13"/>
+      <c r="A424" s="8"/>
     </row>
     <row r="425" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="13"/>
+      <c r="A425" s="8"/>
     </row>
     <row r="426" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="13"/>
+      <c r="A426" s="8"/>
     </row>
     <row r="427" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="13"/>
+      <c r="A427" s="8"/>
     </row>
     <row r="428" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="13"/>
+      <c r="A428" s="8"/>
     </row>
     <row r="429" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="13"/>
+      <c r="A429" s="8"/>
     </row>
     <row r="430" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="13"/>
+      <c r="A430" s="8"/>
     </row>
     <row r="431" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="13"/>
+      <c r="A431" s="8"/>
     </row>
     <row r="432" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="13"/>
+      <c r="A432" s="8"/>
     </row>
     <row r="433" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="13"/>
+      <c r="A433" s="8"/>
     </row>
     <row r="434" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="13"/>
+      <c r="A434" s="8"/>
     </row>
     <row r="435" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="13"/>
+      <c r="A435" s="8"/>
     </row>
     <row r="436" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="13"/>
+      <c r="A436" s="8"/>
     </row>
     <row r="437" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="13"/>
+      <c r="A437" s="8"/>
     </row>
     <row r="438" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="13"/>
+      <c r="A438" s="8"/>
     </row>
     <row r="439" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="13"/>
+      <c r="A439" s="8"/>
     </row>
     <row r="440" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="13"/>
+      <c r="A440" s="8"/>
     </row>
     <row r="441" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="13"/>
+      <c r="A441" s="8"/>
     </row>
     <row r="442" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="13"/>
+      <c r="A442" s="8"/>
     </row>
     <row r="443" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="13"/>
+      <c r="A443" s="8"/>
     </row>
     <row r="444" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="13"/>
+      <c r="A444" s="8"/>
     </row>
     <row r="445" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="13"/>
+      <c r="A445" s="8"/>
     </row>
     <row r="446" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="13"/>
+      <c r="A446" s="8"/>
     </row>
     <row r="447" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="13"/>
+      <c r="A447" s="8"/>
     </row>
     <row r="448" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="13"/>
+      <c r="A448" s="8"/>
     </row>
     <row r="449" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="13"/>
+      <c r="A449" s="8"/>
     </row>
     <row r="450" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="13"/>
+      <c r="A450" s="8"/>
     </row>
     <row r="451" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="13"/>
+      <c r="A451" s="8"/>
     </row>
     <row r="452" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="13"/>
+      <c r="A452" s="8"/>
     </row>
     <row r="453" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="13"/>
+      <c r="A453" s="8"/>
     </row>
     <row r="454" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="13"/>
+      <c r="A454" s="8"/>
     </row>
     <row r="455" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="13"/>
+      <c r="A455" s="8"/>
     </row>
     <row r="456" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="13"/>
+      <c r="A456" s="8"/>
     </row>
     <row r="457" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="13"/>
+      <c r="A457" s="8"/>
     </row>
     <row r="458" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="13"/>
+      <c r="A458" s="8"/>
     </row>
     <row r="459" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="13"/>
+      <c r="A459" s="8"/>
     </row>
     <row r="460" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="13"/>
+      <c r="A460" s="8"/>
     </row>
     <row r="461" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="13"/>
+      <c r="A461" s="8"/>
     </row>
     <row r="462" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="13"/>
+      <c r="A462" s="8"/>
     </row>
     <row r="463" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="13"/>
+      <c r="A463" s="8"/>
     </row>
     <row r="464" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="13"/>
+      <c r="A464" s="8"/>
     </row>
     <row r="465" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="13"/>
+      <c r="A465" s="8"/>
     </row>
     <row r="466" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="13"/>
+      <c r="A466" s="8"/>
     </row>
     <row r="467" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="13"/>
+      <c r="A467" s="8"/>
     </row>
     <row r="468" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="13"/>
+      <c r="A468" s="8"/>
     </row>
     <row r="469" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="13"/>
+      <c r="A469" s="8"/>
     </row>
     <row r="470" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="13"/>
+      <c r="A470" s="8"/>
     </row>
     <row r="471" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="13"/>
+      <c r="A471" s="8"/>
     </row>
     <row r="472" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="13"/>
+      <c r="A472" s="8"/>
     </row>
     <row r="473" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="13"/>
+      <c r="A473" s="8"/>
     </row>
     <row r="474" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="13"/>
+      <c r="A474" s="8"/>
     </row>
     <row r="475" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="13"/>
+      <c r="A475" s="8"/>
     </row>
     <row r="476" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="13"/>
+      <c r="A476" s="8"/>
     </row>
     <row r="477" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="13"/>
+      <c r="A477" s="8"/>
     </row>
     <row r="478" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="13"/>
+      <c r="A478" s="8"/>
     </row>
     <row r="479" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="13"/>
+      <c r="A479" s="8"/>
     </row>
     <row r="480" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="13"/>
+      <c r="A480" s="8"/>
     </row>
     <row r="481" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="13"/>
+      <c r="A481" s="8"/>
     </row>
     <row r="482" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="13"/>
+      <c r="A482" s="8"/>
     </row>
     <row r="483" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="13"/>
+      <c r="A483" s="8"/>
     </row>
     <row r="484" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="13"/>
+      <c r="A484" s="8"/>
     </row>
     <row r="485" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="13"/>
+      <c r="A485" s="8"/>
     </row>
     <row r="486" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="13"/>
+      <c r="A486" s="8"/>
     </row>
     <row r="487" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="13"/>
+      <c r="A487" s="8"/>
     </row>
     <row r="488" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="13"/>
+      <c r="A488" s="8"/>
     </row>
     <row r="489" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="13"/>
+      <c r="A489" s="8"/>
     </row>
     <row r="490" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="13"/>
+      <c r="A490" s="8"/>
     </row>
     <row r="491" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="13"/>
+      <c r="A491" s="8"/>
     </row>
     <row r="492" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="13"/>
+      <c r="A492" s="8"/>
     </row>
     <row r="493" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="13"/>
+      <c r="A493" s="8"/>
     </row>
     <row r="494" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="13"/>
+      <c r="A494" s="8"/>
     </row>
     <row r="495" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="13"/>
+      <c r="A495" s="8"/>
     </row>
     <row r="496" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="13"/>
+      <c r="A496" s="8"/>
     </row>
     <row r="497" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="13"/>
+      <c r="A497" s="8"/>
     </row>
     <row r="498" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="13"/>
+      <c r="A498" s="8"/>
     </row>
     <row r="499" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="13"/>
+      <c r="A499" s="8"/>
     </row>
     <row r="500" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="13"/>
+      <c r="A500" s="8"/>
     </row>
     <row r="501" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="13"/>
+      <c r="A501" s="8"/>
     </row>
     <row r="502" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="13"/>
+      <c r="A502" s="8"/>
     </row>
     <row r="503" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="13"/>
+      <c r="A503" s="8"/>
     </row>
     <row r="504" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="13"/>
+      <c r="A504" s="8"/>
     </row>
     <row r="505" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="13"/>
+      <c r="A505" s="8"/>
     </row>
     <row r="506" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="13"/>
+      <c r="A506" s="8"/>
     </row>
     <row r="507" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="13"/>
+      <c r="A507" s="8"/>
     </row>
     <row r="508" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="13"/>
+      <c r="A508" s="8"/>
     </row>
     <row r="509" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="13"/>
+      <c r="A509" s="8"/>
     </row>
     <row r="510" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="13"/>
+      <c r="A510" s="8"/>
     </row>
     <row r="511" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="13"/>
+      <c r="A511" s="8"/>
     </row>
     <row r="512" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="13"/>
+      <c r="A512" s="8"/>
     </row>
     <row r="513" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="13"/>
+      <c r="A513" s="8"/>
     </row>
     <row r="514" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="13"/>
+      <c r="A514" s="8"/>
     </row>
     <row r="515" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="13"/>
+      <c r="A515" s="8"/>
     </row>
     <row r="516" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="13"/>
+      <c r="A516" s="8"/>
     </row>
     <row r="517" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="13"/>
+      <c r="A517" s="8"/>
     </row>
     <row r="518" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="13"/>
+      <c r="A518" s="8"/>
     </row>
     <row r="519" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="13"/>
+      <c r="A519" s="8"/>
     </row>
     <row r="520" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="13"/>
+      <c r="A520" s="8"/>
     </row>
     <row r="521" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="13"/>
+      <c r="A521" s="8"/>
     </row>
     <row r="522" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="13"/>
+      <c r="A522" s="8"/>
     </row>
     <row r="523" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="13"/>
+      <c r="A523" s="8"/>
     </row>
     <row r="524" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="13"/>
+      <c r="A524" s="8"/>
     </row>
     <row r="525" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="13"/>
+      <c r="A525" s="8"/>
     </row>
     <row r="526" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="13"/>
+      <c r="A526" s="8"/>
     </row>
     <row r="527" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="13"/>
+      <c r="A527" s="8"/>
     </row>
     <row r="528" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="13"/>
+      <c r="A528" s="8"/>
     </row>
     <row r="529" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="13"/>
+      <c r="A529" s="8"/>
     </row>
     <row r="530" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="13"/>
+      <c r="A530" s="8"/>
     </row>
     <row r="531" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="13"/>
+      <c r="A531" s="8"/>
     </row>
     <row r="532" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="13"/>
+      <c r="A532" s="8"/>
     </row>
     <row r="533" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="13"/>
+      <c r="A533" s="8"/>
     </row>
     <row r="534" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="13"/>
+      <c r="A534" s="8"/>
     </row>
     <row r="535" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="13"/>
+      <c r="A535" s="8"/>
     </row>
     <row r="536" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="13"/>
+      <c r="A536" s="8"/>
     </row>
     <row r="537" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="13"/>
+      <c r="A537" s="8"/>
     </row>
     <row r="538" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="13"/>
+      <c r="A538" s="8"/>
     </row>
     <row r="539" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="13"/>
+      <c r="A539" s="8"/>
     </row>
     <row r="540" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="13"/>
+      <c r="A540" s="8"/>
     </row>
     <row r="541" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="13"/>
+      <c r="A541" s="8"/>
     </row>
     <row r="542" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="13"/>
+      <c r="A542" s="8"/>
     </row>
     <row r="543" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="13"/>
+      <c r="A543" s="8"/>
     </row>
     <row r="544" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="13"/>
+      <c r="A544" s="8"/>
     </row>
     <row r="545" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="13"/>
+      <c r="A545" s="8"/>
     </row>
     <row r="546" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="13"/>
+      <c r="A546" s="8"/>
     </row>
     <row r="547" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="13"/>
+      <c r="A547" s="8"/>
     </row>
     <row r="548" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="13"/>
+      <c r="A548" s="8"/>
     </row>
     <row r="549" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="13"/>
+      <c r="A549" s="8"/>
     </row>
     <row r="550" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="13"/>
+      <c r="A550" s="8"/>
     </row>
     <row r="551" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="13"/>
+      <c r="A551" s="8"/>
     </row>
     <row r="552" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="13"/>
+      <c r="A552" s="8"/>
     </row>
     <row r="553" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="13"/>
+      <c r="A553" s="8"/>
     </row>
     <row r="554" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="13"/>
+      <c r="A554" s="8"/>
     </row>
     <row r="555" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="13"/>
+      <c r="A555" s="8"/>
     </row>
     <row r="556" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="13"/>
+      <c r="A556" s="8"/>
     </row>
     <row r="557" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="13"/>
+      <c r="A557" s="8"/>
     </row>
     <row r="558" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="13"/>
+      <c r="A558" s="8"/>
     </row>
     <row r="559" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="13"/>
+      <c r="A559" s="8"/>
     </row>
     <row r="560" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="13"/>
+      <c r="A560" s="8"/>
     </row>
     <row r="561" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="13"/>
+      <c r="A561" s="8"/>
     </row>
     <row r="562" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="13"/>
+      <c r="A562" s="8"/>
     </row>
     <row r="563" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="13"/>
+      <c r="A563" s="8"/>
     </row>
     <row r="564" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="13"/>
+      <c r="A564" s="8"/>
     </row>
     <row r="565" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="13"/>
+      <c r="A565" s="8"/>
     </row>
     <row r="566" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="13"/>
+      <c r="A566" s="8"/>
     </row>
     <row r="567" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="13"/>
+      <c r="A567" s="8"/>
     </row>
     <row r="568" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="13"/>
+      <c r="A568" s="8"/>
     </row>
     <row r="569" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="13"/>
+      <c r="A569" s="8"/>
     </row>
     <row r="570" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="13"/>
+      <c r="A570" s="8"/>
     </row>
     <row r="571" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="13"/>
+      <c r="A571" s="8"/>
     </row>
     <row r="572" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="13"/>
+      <c r="A572" s="8"/>
     </row>
     <row r="573" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="13"/>
+      <c r="A573" s="8"/>
     </row>
     <row r="574" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="13"/>
+      <c r="A574" s="8"/>
     </row>
     <row r="575" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="13"/>
+      <c r="A575" s="8"/>
     </row>
     <row r="576" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="13"/>
+      <c r="A576" s="8"/>
     </row>
     <row r="577" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="13"/>
+      <c r="A577" s="8"/>
     </row>
     <row r="578" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="13"/>
+      <c r="A578" s="8"/>
     </row>
     <row r="579" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="13"/>
+      <c r="A579" s="8"/>
     </row>
     <row r="580" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="13"/>
+      <c r="A580" s="8"/>
     </row>
     <row r="581" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="13"/>
+      <c r="A581" s="8"/>
     </row>
     <row r="582" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="13"/>
+      <c r="A582" s="8"/>
     </row>
     <row r="583" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="13"/>
+      <c r="A583" s="8"/>
     </row>
     <row r="584" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="13"/>
+      <c r="A584" s="8"/>
     </row>
     <row r="585" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="13"/>
+      <c r="A585" s="8"/>
     </row>
     <row r="586" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="13"/>
+      <c r="A586" s="8"/>
     </row>
     <row r="587" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="13"/>
+      <c r="A587" s="8"/>
     </row>
     <row r="588" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="13"/>
+      <c r="A588" s="8"/>
     </row>
     <row r="589" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="13"/>
+      <c r="A589" s="8"/>
     </row>
     <row r="590" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="13"/>
+      <c r="A590" s="8"/>
     </row>
     <row r="591" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="13"/>
+      <c r="A591" s="8"/>
     </row>
     <row r="592" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="13"/>
+      <c r="A592" s="8"/>
     </row>
     <row r="593" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="13"/>
+      <c r="A593" s="8"/>
     </row>
     <row r="594" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="13"/>
+      <c r="A594" s="8"/>
     </row>
     <row r="595" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="13"/>
+      <c r="A595" s="8"/>
     </row>
     <row r="596" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="13"/>
+      <c r="A596" s="8"/>
     </row>
     <row r="597" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="13"/>
+      <c r="A597" s="8"/>
     </row>
     <row r="598" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="13"/>
+      <c r="A598" s="8"/>
     </row>
     <row r="599" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="13"/>
+      <c r="A599" s="8"/>
     </row>
     <row r="600" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="13"/>
+      <c r="A600" s="8"/>
     </row>
     <row r="601" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="13"/>
+      <c r="A601" s="8"/>
     </row>
     <row r="602" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="13"/>
+      <c r="A602" s="8"/>
     </row>
     <row r="603" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="13"/>
+      <c r="A603" s="8"/>
     </row>
     <row r="604" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="13"/>
+      <c r="A604" s="8"/>
     </row>
     <row r="605" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="13"/>
+      <c r="A605" s="8"/>
     </row>
     <row r="606" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="13"/>
+      <c r="A606" s="8"/>
     </row>
     <row r="607" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="13"/>
+      <c r="A607" s="8"/>
     </row>
     <row r="608" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="13"/>
+      <c r="A608" s="8"/>
     </row>
     <row r="609" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="13"/>
+      <c r="A609" s="8"/>
     </row>
     <row r="610" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="13"/>
+      <c r="A610" s="8"/>
     </row>
     <row r="611" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="13"/>
+      <c r="A611" s="8"/>
     </row>
     <row r="612" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="13"/>
+      <c r="A612" s="8"/>
     </row>
     <row r="613" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="13"/>
+      <c r="A613" s="8"/>
     </row>
     <row r="614" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="13"/>
+      <c r="A614" s="8"/>
     </row>
     <row r="615" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="13"/>
+      <c r="A615" s="8"/>
     </row>
     <row r="616" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="13"/>
+      <c r="A616" s="8"/>
     </row>
     <row r="617" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="13"/>
+      <c r="A617" s="8"/>
     </row>
     <row r="618" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="13"/>
+      <c r="A618" s="8"/>
     </row>
     <row r="619" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="13"/>
+      <c r="A619" s="8"/>
     </row>
     <row r="620" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="13"/>
+      <c r="A620" s="8"/>
     </row>
     <row r="621" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="13"/>
+      <c r="A621" s="8"/>
     </row>
     <row r="622" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="13"/>
+      <c r="A622" s="8"/>
     </row>
     <row r="623" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="13"/>
+      <c r="A623" s="8"/>
     </row>
     <row r="624" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="13"/>
+      <c r="A624" s="8"/>
     </row>
     <row r="625" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="13"/>
+      <c r="A625" s="8"/>
     </row>
     <row r="626" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="13"/>
+      <c r="A626" s="8"/>
     </row>
     <row r="627" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="13"/>
+      <c r="A627" s="8"/>
     </row>
     <row r="628" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="13"/>
+      <c r="A628" s="8"/>
     </row>
     <row r="629" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="13"/>
+      <c r="A629" s="8"/>
     </row>
     <row r="630" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="13"/>
+      <c r="A630" s="8"/>
     </row>
     <row r="631" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="13"/>
+      <c r="A631" s="8"/>
     </row>
     <row r="632" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="13"/>
+      <c r="A632" s="8"/>
     </row>
     <row r="633" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="13"/>
+      <c r="A633" s="8"/>
     </row>
     <row r="634" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="13"/>
+      <c r="A634" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
